--- a/example_map/Punkte_Adressen.xlsx
+++ b/example_map/Punkte_Adressen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl\Documents\Python\UTEC-Tools\example_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BE70F-6D02-4D68-8F8A-532A5F2A8703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DB748-060A-4C1A-B071-FD46AD530F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29772" yWindow="1680" windowWidth="27912" windowHeight="15312" xr2:uid="{C8E00E0A-02FE-4E90-A293-AC361F300F57}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="14400" xr2:uid="{C8E00E0A-02FE-4E90-A293-AC361F300F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -200,22 +207,27 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,7 +248,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
@@ -312,6 +324,16 @@
             </a:rPr>
             <a:t> Punktgröße und Punktfarbe können Werte wie z.B. Leistungen oder Erträge eingegeben werden. Die Punkte auf der Karte werden entsprechend formatiert.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Punktgröße und -farbe sind optional)</a:t>
+          </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -319,7 +341,7 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -624,23 +646,23 @@
   <dimension ref="C8:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="29.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="11.5703125" style="4"/>
+    <col min="3" max="3" width="29.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="3:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -650,245 +672,246 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>340.3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>908.7970173376342</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>369.41</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>906.17733412741143</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>218.12</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>917.05991655968216</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>285.77</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>910.26415648948455</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>223.04</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>914.10362266858226</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>523.16</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>896.8150871626284</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>213.2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>914.17265009381742</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>200.08</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>917.12877349059181</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>369.41</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>897.23689396605573</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>329.64</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>903.07864336852458</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>207.46</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>911.64878048781418</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>206.23</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>913.58177277797256</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>259.12</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>904.3466849336329</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>119.72</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>958.44170564650653</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>310.77999999999997</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>889.79342300018993</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>309.55</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>885.22726538523102</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>112.75</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <v>917.27827050998008</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/example_map/Punkte_Adressen.xlsx
+++ b/example_map/Punkte_Adressen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl\Documents\Python\UTEC-Tools\example_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DB748-060A-4C1A-B071-FD46AD530F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D2D439-AD1D-4621-8000-BA25D8B158C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="14400" xr2:uid="{C8E00E0A-02FE-4E90-A293-AC361F300F57}"/>
+    <workbookView xWindow="-28740" yWindow="684" windowWidth="26796" windowHeight="15828" xr2:uid="{C8E00E0A-02FE-4E90-A293-AC361F300F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -251,15 +251,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -274,8 +274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2179320" y="152400"/>
-          <a:ext cx="5577840" cy="716280"/>
+          <a:off x="1645920" y="167640"/>
+          <a:ext cx="5242560" cy="828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,6 +342,97 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EC11D8-8EFB-4099-A5BA-2A62A33B0EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7071360" y="167640"/>
+          <a:ext cx="1950720" cy="828000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>!!! Achtung !!!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Bitte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> keine Einheiten in Zahlenformaten verwenden! (z.B. #.##0 "kW")</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -646,19 +737,19 @@
   <dimension ref="C8:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="4"/>
-    <col min="3" max="3" width="29.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="4"/>
+    <col min="1" max="2" width="11.5546875" style="4"/>
+    <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +777,7 @@
         <v>908.7970173376342</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +791,7 @@
         <v>906.17733412741143</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -714,7 +805,7 @@
         <v>917.05991655968216</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
@@ -728,7 +819,7 @@
         <v>910.26415648948455</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
@@ -742,7 +833,7 @@
         <v>914.10362266858226</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
@@ -756,7 +847,7 @@
         <v>896.8150871626284</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
@@ -770,7 +861,7 @@
         <v>914.17265009381742</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,7 +875,7 @@
         <v>917.12877349059181</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
@@ -798,7 +889,7 @@
         <v>897.23689396605573</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
@@ -812,7 +903,7 @@
         <v>903.07864336852458</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
@@ -826,7 +917,7 @@
         <v>911.64878048781418</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
@@ -840,7 +931,7 @@
         <v>913.58177277797256</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
@@ -854,7 +945,7 @@
         <v>904.3466849336329</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
@@ -868,7 +959,7 @@
         <v>958.44170564650653</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
@@ -882,7 +973,7 @@
         <v>889.79342300018993</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
@@ -896,7 +987,7 @@
         <v>885.22726538523102</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
